--- a/прочее/рассчет нагрузки профиля.xlsx
+++ b/прочее/рассчет нагрузки профиля.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SusPecT\Desktop\Обучение Appline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SusPecT\Documents\Appline_Study\прочее\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="6885" windowHeight="6330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6885" windowHeight="6330"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,34 +24,52 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Поиск авиабилета (авторизованным пользователем)</t>
-  </si>
-  <si>
-    <t>Просмотр истории продаж авиабилетов (авторизованным пользователем)</t>
-  </si>
-  <si>
-    <t>Поиск и покупка авиабилета (авторизованным пользователем)</t>
-  </si>
-  <si>
-    <t>Авторизация пользователя, просмотр истории, выход</t>
-  </si>
-  <si>
-    <t>Авторизация пользователя, поиск авиабилета, выход</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>SLA</t>
   </si>
   <si>
     <t>кол-во юзеров</t>
+  </si>
+  <si>
+    <t>поиск покупка</t>
+  </si>
+  <si>
+    <t>поиск история</t>
+  </si>
+  <si>
+    <t>поиск история удаление</t>
+  </si>
+  <si>
+    <t>история</t>
+  </si>
+  <si>
+    <t>поиск</t>
+  </si>
+  <si>
+    <t>Кол-во/час пиковой нагрузки</t>
+  </si>
+  <si>
+    <t>Операции</t>
+  </si>
+  <si>
+    <t>№ пп</t>
+  </si>
+  <si>
+    <t>Процент в профиле</t>
+  </si>
+  <si>
+    <t>Pacing</t>
+  </si>
+  <si>
+    <t>Кол-во/час  за 20 минут</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,13 +100,28 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -119,7 +152,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -134,13 +167,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -422,150 +490,365 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="66.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3.42578125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+    <row r="1" spans="1:8" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5">
+        <v>600</v>
+      </c>
+      <c r="D2" s="19">
+        <f>ROUND(C2/$C$7,4)</f>
+        <v>0.31580000000000003</v>
+      </c>
+      <c r="E2" s="3">
+        <f>7*5+56-25</f>
+        <v>66</v>
+      </c>
+      <c r="F2" s="12">
+        <f t="shared" ref="F2:F6" si="0">ROUND(C2*E2/3600,6)</f>
+        <v>11</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="7">
+        <f>E2/60*20</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>700</v>
+      </c>
+      <c r="D3" s="19">
+        <f t="shared" ref="D3:D6" si="1">ROUND(C3/$C$7,4)</f>
+        <v>0.36840000000000001</v>
+      </c>
+      <c r="E3" s="3">
+        <f>8*5+131-30</f>
+        <v>141</v>
+      </c>
+      <c r="F3" s="12">
+        <f t="shared" si="0"/>
+        <v>27.416667</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H6" si="2">E3/60*20</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5">
+        <v>200</v>
+      </c>
+      <c r="D4" s="19">
+        <f t="shared" si="1"/>
+        <v>0.1053</v>
+      </c>
+      <c r="E4" s="3">
+        <f>8*5+66-20</f>
+        <v>86</v>
+      </c>
+      <c r="F4" s="12">
+        <f t="shared" si="0"/>
+        <v>4.7777779999999996</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="7">
+        <f t="shared" si="2"/>
+        <v>28.666666666666668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="C5" s="5">
+        <v>200</v>
+      </c>
+      <c r="D5" s="19">
+        <f t="shared" si="1"/>
+        <v>0.1053</v>
+      </c>
+      <c r="E5" s="3">
+        <f>4*5+20</f>
+        <v>40</v>
+      </c>
+      <c r="F5" s="12">
+        <f t="shared" si="0"/>
+        <v>2.2222219999999999</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="7">
+        <f t="shared" si="2"/>
+        <v>13.333333333333332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="C6" s="5">
+        <v>200</v>
+      </c>
+      <c r="D6" s="19">
+        <f t="shared" si="1"/>
+        <v>0.1053</v>
+      </c>
+      <c r="E6" s="3">
+        <f>5*5+46</f>
+        <v>71</v>
+      </c>
+      <c r="F6" s="12">
+        <f t="shared" si="0"/>
+        <v>3.9444439999999998</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="7">
+        <f t="shared" si="2"/>
+        <v>23.666666666666668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="8">
+        <f>SUM(C2:C6)</f>
+        <v>1900</v>
+      </c>
+      <c r="D7" s="14">
+        <f>SUM(D2:D6)</f>
+        <v>1.0001</v>
+      </c>
+      <c r="E7" s="3">
+        <f>SUM(E2:E6)</f>
+        <v>404</v>
+      </c>
+      <c r="F7" s="12">
+        <f>SUM(F2:F6)</f>
+        <v>49.361111000000001</v>
+      </c>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5">
-        <v>500</v>
-      </c>
-      <c r="D2" s="7">
-        <f>C2/$C$7</f>
-        <v>0.3105590062111801</v>
-      </c>
-      <c r="E2" s="3">
-        <v>48</v>
-      </c>
-      <c r="F2" s="6">
-        <f>C2*E2*2/3600</f>
-        <v>13.333333333333334</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="D9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5">
+        <v>11</v>
+      </c>
+      <c r="D10" s="6">
+        <f>C10/$C$15</f>
+        <v>0.22</v>
+      </c>
+      <c r="E10" s="5">
+        <v>600</v>
+      </c>
+      <c r="F10" s="13">
+        <f>C10*3600/E10</f>
+        <v>66</v>
+      </c>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5">
-        <v>300</v>
-      </c>
-      <c r="D3" s="7">
-        <f t="shared" ref="D3:D6" si="0">C3/$C$7</f>
-        <v>0.18633540372670807</v>
-      </c>
-      <c r="E3" s="3">
-        <v>22</v>
-      </c>
-      <c r="F3" s="6">
-        <f t="shared" ref="F3:F6" si="1">C3*E3*2/3600</f>
-        <v>3.6666666666666665</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5">
+        <v>23</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" ref="D11:D14" si="3">C11/$C$15</f>
+        <v>0.46</v>
+      </c>
+      <c r="E11" s="5">
+        <v>600</v>
+      </c>
+      <c r="F11" s="13">
+        <f t="shared" ref="F11:F14" si="4">C11*3600/E11</f>
+        <v>138</v>
+      </c>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5">
+        <v>10</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="5">
+        <v>400</v>
+      </c>
+      <c r="F12" s="13">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="5">
-        <v>100</v>
-      </c>
-      <c r="D4" s="7">
-        <f t="shared" si="0"/>
-        <v>6.2111801242236024E-2</v>
-      </c>
-      <c r="E4" s="3">
-        <v>132</v>
-      </c>
-      <c r="F4" s="6">
-        <f t="shared" si="1"/>
-        <v>7.333333333333333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="D13" s="6">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="E13" s="5">
+        <v>200</v>
+      </c>
+      <c r="F13" s="13">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5">
-        <v>600</v>
-      </c>
-      <c r="D5" s="7">
-        <f t="shared" si="0"/>
-        <v>0.37267080745341613</v>
-      </c>
-      <c r="E5" s="3">
-        <v>23</v>
-      </c>
-      <c r="F5" s="6">
-        <f t="shared" si="1"/>
-        <v>7.666666666666667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5">
-        <v>110</v>
-      </c>
-      <c r="D6" s="7">
-        <f t="shared" si="0"/>
-        <v>6.8322981366459631E-2</v>
-      </c>
-      <c r="E6" s="3">
-        <v>60</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" si="1"/>
-        <v>3.6666666666666665</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7">
-        <f>SUM(C2:C6)</f>
-        <v>1610</v>
-      </c>
-      <c r="D7" s="8">
-        <f>SUM(D2:D6)</f>
-        <v>1</v>
-      </c>
+      <c r="D14" s="6">
+        <f t="shared" si="3"/>
+        <v>0.08</v>
+      </c>
+      <c r="E14" s="5">
+        <v>200</v>
+      </c>
+      <c r="F14" s="13">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="8">
+        <f>SUM(C10:C14)</f>
+        <v>50</v>
+      </c>
+      <c r="D15" s="14">
+        <f>SUM(D10:D14)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="E15" s="3">
+        <f>SUM(E10:E14)</f>
+        <v>2000</v>
+      </c>
+      <c r="F15" s="12">
+        <f>SUM(F10:F14)</f>
+        <v>402</v>
+      </c>
+      <c r="G15" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
